--- a/Trame timesheet.xlsx
+++ b/Trame timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J4ck\Documents\GitHub\Timesheets\Exccel templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08594E06-30D1-417E-90CF-5C37C3A4F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA68867-1419-4258-B02C-2180FA18C642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,19 +313,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -381,7 +368,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,36 +447,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Comma0" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -862,7 +831,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B7" sqref="B7:B8"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -985,12 +954,8 @@
     </row>
     <row r="6" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:36" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="41" t="s">
         <v>6</v>
       </c>
@@ -1126,8 +1091,12 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="48"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="42" t="s">
         <v>9</v>
       </c>
@@ -1568,10 +1537,10 @@
     </row>
     <row r="14" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26"/>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="25">
         <f t="shared" ref="D14:AJ14" si="8">SUM(D9:D13)</f>
         <v>8</v>
@@ -1710,9 +1679,9 @@
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1796,13 +1765,6 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="5">
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B14:C14"/>
-  </mergeCells>
   <conditionalFormatting sqref="D7:AH13 D14:AJ14">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>IF(ISBLANK($AD$3),OR(D$8=1,D$8=7),OR(D$8=6,D$8=7))</formula>

--- a/Trame timesheet.xlsx
+++ b/Trame timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J4ck\Documents\GitHub\Timesheets\Exccel templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA68867-1419-4258-B02C-2180FA18C642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7BD7BD-9CE4-4682-8A0B-5DF1A3BB95D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Month" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Month!$A$1:$AJ$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Month!$A$1:$AJ$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Name:</t>
   </si>
@@ -85,21 +85,6 @@
   </si>
   <si>
     <t>Funding code</t>
-  </si>
-  <si>
-    <t>Donor's name</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Funding code 1 NAV</t>
-  </si>
-  <si>
-    <t>Funding code 2 NAV</t>
-  </si>
-  <si>
-    <t>Funding code 3 NAV</t>
   </si>
   <si>
     <t xml:space="preserve">Responsible: </t>
@@ -115,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$-407]mmm/\ yy;@"/>
     <numFmt numFmtId="166" formatCode="d"/>
@@ -123,6 +108,7 @@
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
     <numFmt numFmtId="170" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -189,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,14 +188,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -292,25 +272,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -368,14 +337,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,7 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -412,12 +376,9 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -438,27 +399,36 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Comma0" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -826,12 +796,12 @@
     <tabColor theme="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B7" sqref="B7:B8"/>
-      <selection pane="bottomLeft" activeCell="AI24" sqref="AI24"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -875,897 +845,923 @@
     <col min="37" max="16384" width="9.07421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="6"/>
-    </row>
-    <row r="2" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="7">
+      <c r="AH1" s="4"/>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="5">
         <f>DATE(Q5,Q4,1)</f>
         <v>43132</v>
       </c>
-      <c r="AJ2" s="7"/>
-    </row>
-    <row r="3" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="P3" s="8" t="s">
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="P3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="35"/>
-      <c r="AC3" s="11" t="s">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
+      <c r="AC3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="38"/>
-      <c r="AH3" s="6"/>
-    </row>
-    <row r="4" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="32"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="P4" s="8" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="P4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="31">
         <v>2</v>
       </c>
-      <c r="AH4" s="6"/>
-    </row>
-    <row r="5" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
-      <c r="I5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="P5" s="8" t="s">
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
+      <c r="I5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="P5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="23">
         <v>2018</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="46"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AH5" s="6"/>
-    </row>
-    <row r="6" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:36" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="49"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="41" t="s">
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:36" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <f>AI2</f>
         <v>43132</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <f t="shared" ref="E7:AH7" si="0">D7+1</f>
         <v>43133</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>43134</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>43135</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <f t="shared" si="0"/>
         <v>43136</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="17">
         <f t="shared" si="0"/>
         <v>43137</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <f t="shared" si="0"/>
         <v>43138</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="17">
         <f t="shared" si="0"/>
         <v>43139</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>43140</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="17">
         <f t="shared" si="0"/>
         <v>43141</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="17">
         <f t="shared" si="0"/>
         <v>43142</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="17">
         <f t="shared" si="0"/>
         <v>43143</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="17">
         <f t="shared" si="0"/>
         <v>43144</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="17">
         <f t="shared" si="0"/>
         <v>43145</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="17">
         <f t="shared" si="0"/>
         <v>43146</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="17">
         <f t="shared" si="0"/>
         <v>43147</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="17">
         <f t="shared" si="0"/>
         <v>43148</v>
       </c>
-      <c r="U7" s="20">
+      <c r="U7" s="17">
         <f t="shared" si="0"/>
         <v>43149</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="17">
         <f t="shared" si="0"/>
         <v>43150</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="17">
         <f t="shared" si="0"/>
         <v>43151</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="17">
         <f t="shared" si="0"/>
         <v>43152</v>
       </c>
-      <c r="Y7" s="20">
+      <c r="Y7" s="17">
         <f t="shared" si="0"/>
         <v>43153</v>
       </c>
-      <c r="Z7" s="20">
+      <c r="Z7" s="17">
         <f t="shared" si="0"/>
         <v>43154</v>
       </c>
-      <c r="AA7" s="20">
+      <c r="AA7" s="17">
         <f t="shared" si="0"/>
         <v>43155</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="AB7" s="17">
         <f t="shared" si="0"/>
         <v>43156</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AC7" s="17">
         <f t="shared" si="0"/>
         <v>43157</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AD7" s="17">
         <f t="shared" si="0"/>
         <v>43158</v>
       </c>
-      <c r="AE7" s="20">
+      <c r="AE7" s="17">
         <f t="shared" si="0"/>
         <v>43159</v>
       </c>
-      <c r="AF7" s="20">
+      <c r="AF7" s="17">
         <f t="shared" si="0"/>
         <v>43160</v>
       </c>
-      <c r="AG7" s="20">
+      <c r="AG7" s="17">
         <f t="shared" si="0"/>
         <v>43161</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AH7" s="17">
         <f t="shared" si="0"/>
         <v>43162</v>
       </c>
-      <c r="AI7" s="21" t="s">
+      <c r="AI7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AJ7" s="21" t="s">
+      <c r="AJ7" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <f t="shared" ref="D8:AH8" si="1">WEEKDAY(D7,1)</f>
         <v>5</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AA8" s="22">
+      <c r="AA8" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AB8" s="22">
+      <c r="AB8" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC8" s="22">
+      <c r="AC8" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AD8" s="22">
+      <c r="AD8" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AF8" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AG8" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AH8" s="22">
+      <c r="AH8" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21" t="s">
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="43">
+        <f t="shared" ref="AI9:AI15" si="2">SUM(D9:AH9)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="20">
+        <f>IF($AI$16=0,0,AI9/$AI$16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="43">
+        <f t="shared" ref="AI10:AI15" si="3">SUM(D10:AH10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="20">
+        <f t="shared" ref="AJ10:AJ15" si="4">IF($AI$16=0,0,AI10/$AI$16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="21">
+        <f t="shared" ref="D16:AJ16" si="5">SUM(D9:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+    </row>
+    <row r="18" spans="1:36" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="12"/>
+    </row>
+    <row r="19" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ19" s="13"/>
+    </row>
+    <row r="20" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="F20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="AJ20" s="14"/>
+    </row>
+    <row r="21" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="AJ21" s="14"/>
+    </row>
+    <row r="22" spans="1:36" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="F22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="X22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AJ22" s="14"/>
+    </row>
+    <row r="23" spans="1:36" s="3" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="23">
-        <f t="shared" ref="AI9:AI13" si="2">SUM(D9:AH9)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="24">
-        <f>IF($AI$14=0,0,AI9/$AI$14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="24">
-        <f>IF($AI$14=0,0,AI10/$AI$14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="23">
-        <f t="shared" ref="AI11:AI12" si="3">SUM(D11:AH11)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="24">
-        <f>IF($AI$14=0,0,AI11/$AI$14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="24">
-        <f>IF($AI$14=0,0,AI12/$AI$14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="2">
-        <f>8-D9-D10-D11-D12</f>
-        <v>8</v>
-      </c>
-      <c r="E13" s="2">
-        <f>8-E9-E10-E11-E12</f>
-        <v>8</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <f t="shared" ref="H13:L13" si="4">8-H9-H10-H11-H12</f>
-        <v>8</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13:S13" si="5">8-O9-O10-O11-O12</f>
-        <v>8</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2">
-        <f t="shared" ref="V13:Z13" si="6">8-V9-V10-V11-V12</f>
-        <v>8</v>
-      </c>
-      <c r="W13" s="2">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2">
-        <f t="shared" ref="AC13:AG13" si="7">8-AC9-AC10-AC11-AC12</f>
-        <v>8</v>
-      </c>
-      <c r="AD13" s="2">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="AE13" s="2">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="AF13" s="2">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="AG13" s="2">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="23">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="AJ13" s="24">
-        <f>IF($AI$14=0,0,AI13/$AI$14)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="25">
-        <f t="shared" ref="D14:AJ14" si="8">SUM(D9:D13)</f>
-        <v>8</v>
-      </c>
-      <c r="E14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="I14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="J14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="L14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="M14" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="P14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="Q14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="S14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="T14" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="W14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="X14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="Y14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="Z14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AA14" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AD14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AE14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AF14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AG14" s="25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AH14" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="25">
-        <f t="shared" si="8"/>
-        <v>176</v>
-      </c>
-      <c r="AJ14" s="43">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-    </row>
-    <row r="16" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="14"/>
-    </row>
-    <row r="17" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="F17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ17" s="16"/>
-    </row>
-    <row r="18" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="F18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="AJ18" s="17"/>
-    </row>
-    <row r="19" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="AJ19" s="17"/>
-    </row>
-    <row r="20" spans="1:36" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="F20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="X20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AJ20" s="17"/>
-    </row>
-    <row r="21" spans="1:36" s="5" customFormat="1" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V21" s="5" t="s">
+      <c r="V23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AJ21" s="13"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="AJ23" s="11"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="D7:AH13 D14:AJ14">
+  <conditionalFormatting sqref="D16:AJ16 D7:AH15">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>IF(ISBLANK($AD$3),OR(D$8=1,D$8=7),OR(D$8=6,D$8=7))</formula>
     </cfRule>
